--- a/world_population.xlsx
+++ b/world_population.xlsx
@@ -1,28 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pycharm\covid_19\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sraboy\Downloads\Private\recovid19article\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D0CE7B6-7C02-4C7D-882B-C598A49E2BE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5940"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12252" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$O$237</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$O$238</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="258">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -790,12 +791,18 @@
   </si>
   <si>
     <t>Kosovo</t>
+  </si>
+  <si>
+    <t>Antarctica</t>
+  </si>
+  <si>
+    <t>Winter Olympics 2022</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -814,7 +821,7 @@
     <font>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Times New Roman"/>
+      <name val="Calibri Light"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="major"/>
@@ -1596,10 +1603,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O237"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O239"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A212" workbookViewId="0">
+      <selection activeCell="J239" sqref="J239"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -10396,34 +10405,37 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="C234">
-        <v>3480</v>
-      </c>
-      <c r="D234">
-        <v>3.0499999999999999E-2</v>
-      </c>
-      <c r="E234">
-        <v>103</v>
-      </c>
-      <c r="F234">
-        <v>0</v>
-      </c>
-      <c r="G234">
-        <v>12170</v>
+        <v>4400</v>
+      </c>
+      <c r="D234" t="s">
+        <v>63</v>
+      </c>
+      <c r="E234" t="s">
+        <v>63</v>
+      </c>
+      <c r="F234" t="s">
+        <v>63</v>
+      </c>
+      <c r="G234" t="s">
+        <v>63</v>
+      </c>
+      <c r="H234" t="s">
+        <v>63</v>
       </c>
       <c r="I234" t="s">
         <v>63</v>
       </c>
-      <c r="J234" t="s">
+      <c r="J234">
+        <v>40</v>
+      </c>
+      <c r="K234" t="s">
         <v>63</v>
       </c>
-      <c r="K234">
-        <v>0.66</v>
-      </c>
-      <c r="L234">
-        <v>0</v>
+      <c r="L234" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.25">
@@ -10431,22 +10443,22 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C235">
-        <v>1626</v>
+        <v>3480</v>
       </c>
       <c r="D235">
-        <v>6.7999999999999996E-3</v>
+        <v>3.0499999999999999E-2</v>
       </c>
       <c r="E235">
-        <v>11</v>
+        <v>103</v>
       </c>
       <c r="F235">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G235">
-        <v>260</v>
+        <v>12170</v>
       </c>
       <c r="I235" t="s">
         <v>63</v>
@@ -10455,7 +10467,7 @@
         <v>63</v>
       </c>
       <c r="K235">
-        <v>0.46</v>
+        <v>0.66</v>
       </c>
       <c r="L235">
         <v>0</v>
@@ -10466,22 +10478,22 @@
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C236">
-        <v>1357</v>
+        <v>1626</v>
       </c>
       <c r="D236">
-        <v>1.2699999999999999E-2</v>
+        <v>6.7999999999999996E-3</v>
       </c>
       <c r="E236">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F236">
-        <v>136</v>
+        <v>6</v>
       </c>
       <c r="G236">
-        <v>10</v>
+        <v>260</v>
       </c>
       <c r="I236" t="s">
         <v>63</v>
@@ -10490,7 +10502,7 @@
         <v>63</v>
       </c>
       <c r="K236">
-        <v>0</v>
+        <v>0.46</v>
       </c>
       <c r="L236">
         <v>0</v>
@@ -10501,22 +10513,22 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C237">
-        <v>801</v>
+        <v>1357</v>
       </c>
       <c r="D237">
-        <v>2.5000000000000001E-3</v>
+        <v>1.2699999999999999E-2</v>
       </c>
       <c r="E237">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="F237">
-        <v>2003</v>
+        <v>136</v>
       </c>
       <c r="G237">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I237" t="s">
         <v>63</v>
@@ -10524,11 +10536,84 @@
       <c r="J237" t="s">
         <v>63</v>
       </c>
-      <c r="K237" t="s">
-        <v>63</v>
+      <c r="K237">
+        <v>0</v>
       </c>
       <c r="L237">
         <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>237</v>
+      </c>
+      <c r="B238" t="s">
+        <v>251</v>
+      </c>
+      <c r="C238">
+        <v>801</v>
+      </c>
+      <c r="D238">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="E238">
+        <v>2</v>
+      </c>
+      <c r="F238">
+        <v>2003</v>
+      </c>
+      <c r="G238">
+        <v>0</v>
+      </c>
+      <c r="I238" t="s">
+        <v>63</v>
+      </c>
+      <c r="J238" t="s">
+        <v>63</v>
+      </c>
+      <c r="K238" t="s">
+        <v>63</v>
+      </c>
+      <c r="L238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>238</v>
+      </c>
+      <c r="B239" t="s">
+        <v>257</v>
+      </c>
+      <c r="C239">
+        <v>2893</v>
+      </c>
+      <c r="D239" t="s">
+        <v>63</v>
+      </c>
+      <c r="E239" t="s">
+        <v>63</v>
+      </c>
+      <c r="F239" t="s">
+        <v>63</v>
+      </c>
+      <c r="G239" t="s">
+        <v>63</v>
+      </c>
+      <c r="H239" t="s">
+        <v>63</v>
+      </c>
+      <c r="I239" t="s">
+        <v>63</v>
+      </c>
+      <c r="J239">
+        <v>25</v>
+      </c>
+      <c r="K239" t="s">
+        <v>63</v>
+      </c>
+      <c r="L239" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
